--- a/Data_clean/MCAS/Estados_US/Edos_USA_2011/MASSACHUSETTS_2011.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2011/MASSACHUSETTS_2011.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Bejucal De Ocampo</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Cacahoatan</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Chalchihuitan</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Chenalho</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Comitan De Dominguez</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Frontera Hidalgo</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Huehuetan</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Huixtan</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -751,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -764,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -777,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Ostuacan</t>
@@ -790,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -803,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Reforma</t>
@@ -816,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Sabanilla</t>
@@ -829,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -842,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -855,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -868,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Tenejapa</t>
@@ -881,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Tuxtla Chico</t>
@@ -894,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Union Juarez</t>
@@ -907,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Villa Comaltitlan</t>
@@ -920,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -933,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -964,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Juarez</t>
@@ -977,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1008,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1039,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1070,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1083,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1114,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Gomez Palacio</t>
@@ -1127,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Rodeo</t>
@@ -1140,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>San Juan De Guadalupe</t>
@@ -1153,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Santa Clara</t>
@@ -1166,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1197,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Penjamo</t>
@@ -1210,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Purisima Del Rincon</t>
@@ -1223,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -1236,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Xichu</t>
@@ -1249,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1280,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Acatepec</t>
@@ -1293,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -1306,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -1319,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -1332,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Azoyu</t>
@@ -1345,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Chilapa De Alvarez</t>
@@ -1358,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -1371,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -1384,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Coyuca De Benitez</t>
@@ -1397,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -1410,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -1423,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -1436,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>San Luis Acatlan</t>
@@ -1449,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Taxco De Alarcon</t>
@@ -1462,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -1475,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Xalpatlahuac</t>
@@ -1488,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1519,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1532,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -1545,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Pacula</t>
@@ -1558,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1589,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1602,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Cuquio</t>
@@ -1615,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1628,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>San Sebastian Del Oeste</t>
@@ -1641,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Tecalitlan</t>
@@ -1654,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Tizapan El Alto</t>
@@ -1667,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Tlajomulco De Zuñiga</t>
@@ -1680,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Tlaquepaque</t>
@@ -1693,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Tonala</t>
@@ -1706,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Tuxcueca</t>
@@ -1719,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Union De Tula</t>
@@ -1732,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Yahualica De Gonzalez Gallo</t>
@@ -1745,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1758,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1789,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Atizapan De Zaragoza</t>
@@ -1802,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -1815,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -1828,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -1841,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -1854,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Naucalpan De Juarez</t>
@@ -1867,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -1880,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1893,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Teoloyucan</t>
@@ -1906,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1919,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1932,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Tonatico</t>
@@ -1945,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Tultitlan</t>
@@ -1958,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1989,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -2002,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Irimbo</t>
@@ -2015,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -2028,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Lagunillas</t>
@@ -2041,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Maravatio</t>
@@ -2054,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -2067,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Pajacuaran</t>
@@ -2080,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Patzcuaro</t>
@@ -2093,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -2106,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Tacambaro</t>
@@ -2119,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -2132,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -2145,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -2158,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -2171,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2202,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -2215,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Zacatepec De Hidalgo</t>
@@ -2228,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2259,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -2272,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2303,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2334,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Juchitan De Zaragoza</t>
@@ -2347,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -2360,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -2373,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -2386,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>San Agustin Yatareni</t>
@@ -2399,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -2412,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>San Dionisio Del Mar</t>
@@ -2425,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>San Ildefonso Villa Alta</t>
@@ -2438,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -2451,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Santiago Chazumba</t>
@@ -2464,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -2477,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Santo Domingo Tomaltepec</t>
@@ -2490,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Silacayoapam</t>
@@ -2503,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Totontepec Villa De Morelos</t>
@@ -2516,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2547,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -2560,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Atzitzihuacan</t>
@@ -2573,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Caltepec</t>
@@ -2586,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Cañada Morelos</t>
@@ -2599,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -2612,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Coatzingo</t>
@@ -2625,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -2638,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -2651,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Izucar De Matamoros</t>
@@ -2664,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Juan N. Mendez</t>
@@ -2677,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Nealtican</t>
@@ -2690,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -2703,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>San Andres Cholula</t>
@@ -2716,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>San Martin Texmelucan</t>
@@ -2729,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -2742,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Tehuacan</t>
@@ -2755,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -2768,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -2781,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Tulcingo</t>
@@ -2794,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2825,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2856,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -2869,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>San Luis Potosi</t>
@@ -2882,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Villa De Reyes</t>
@@ -2895,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -2908,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -2921,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2952,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -2965,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>San Ignacio</t>
@@ -2978,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3009,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Cajeme</t>
@@ -3022,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Empalme</t>
@@ -3035,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -3048,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -3061,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3092,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -3105,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3136,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -3149,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -3162,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3193,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Nativitas</t>
@@ -3206,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -3219,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3250,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Cordoba</t>
@@ -3263,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -3276,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Cosoleacaque</t>
@@ -3289,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -3302,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -3315,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -3328,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Jamapa</t>
@@ -3341,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -3354,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -3367,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -3380,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Lerdo De Tejada</t>
@@ -3393,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Martinez De La Torre</t>
@@ -3406,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -3419,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -3432,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -3445,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>San Andres Tuxtla</t>
@@ -3458,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -3471,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Sayula De Aleman</t>
@@ -3484,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Soteapan</t>
@@ -3497,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Tepetzintla</t>
@@ -3510,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -3523,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -3536,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -3549,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -3562,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -3575,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3606,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Yucatan</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3637,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Panuco</t>
@@ -3650,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Rio Grande</t>
@@ -3663,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Teul De Gonzalez Ortega</t>
@@ -3676,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Total</t>
